--- a/数据库表/ai_doc.xlsx
+++ b/数据库表/ai_doc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ai_doc_id</t>
   </si>
@@ -52,15 +52,6 @@
   </si>
   <si>
     <t>ai_id_card</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>医生</t>
   </si>
 </sst>
 </file>
@@ -104,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -148,47 +139,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/数据库表/ai_doc.xlsx
+++ b/数据库表/ai_doc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>ai_doc_id</t>
   </si>
@@ -52,6 +52,33 @@
   </si>
   <si>
     <t>ai_id_card</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>王333</t>
   </si>
 </sst>
 </file>
@@ -95,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -139,6 +166,137 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>